--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_37.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_37.xlsx
@@ -508,246 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_9</t>
+          <t>model_1_37_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993643022166819</v>
+        <v>0.9005291241872726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7184373102608965</v>
+        <v>0.678333451718962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7078885442049145</v>
+        <v>0.6516625531006336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9869780349642594</v>
+        <v>-0.1322253871260541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02667887606505134</v>
+        <v>0.4174579867241611</v>
       </c>
       <c r="G2" t="n">
-        <v>1.882811002762359</v>
+        <v>2.150985689493565</v>
       </c>
       <c r="H2" t="n">
-        <v>1.044865739783641</v>
+        <v>1.245982849793371</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06176731921514798</v>
+        <v>0.9740044198232949</v>
       </c>
       <c r="J2" t="n">
-        <v>0.244245678083459</v>
+        <v>2.486452841897956</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1633366954026294</v>
+        <v>0.6461098874991476</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003721157756008</v>
+        <v>0.6589569972135061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1702902766794909</v>
+        <v>0.6736161230418363</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2477663706388</v>
+        <v>35.74714274071128</v>
       </c>
       <c r="O2" t="n">
-        <v>216.4746949870718</v>
+        <v>56.46803176347068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_8</t>
+          <t>model_1_37_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9936412345839801</v>
+        <v>0.8986548468097455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7183753655884878</v>
+        <v>0.6781498309884613</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7080411300540863</v>
+        <v>0.6455370947831036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9872768680121586</v>
+        <v>-0.006431400152969724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02668637816782199</v>
+        <v>0.4253239279274754</v>
       </c>
       <c r="G3" t="n">
-        <v>1.883225227071986</v>
+        <v>2.152213562163919</v>
       </c>
       <c r="H3" t="n">
-        <v>1.044319949048589</v>
+        <v>1.267893259020695</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06034985908444086</v>
+        <v>0.8657893058608863</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2463275768988331</v>
+        <v>2.410147861218368</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1633596589364155</v>
+        <v>0.6521686345781093</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003722204145963</v>
+        <v>0.6525309033476989</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1703142178184512</v>
+        <v>0.6799328035272848</v>
       </c>
       <c r="N3" t="n">
-        <v>137.247204049486</v>
+        <v>35.70980843402637</v>
       </c>
       <c r="O3" t="n">
-        <v>216.474132665919</v>
+        <v>56.43069745678578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_7</t>
+          <t>model_1_37_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9936378169196103</v>
+        <v>0.8975271318050471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7183120723334318</v>
+        <v>0.678143548693406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7081926649897108</v>
+        <v>0.6417579528096791</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9875747542689428</v>
+        <v>0.03427731362719932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02670072137406655</v>
+        <v>0.4300567065585429</v>
       </c>
       <c r="G4" t="n">
-        <v>1.883648469359984</v>
+        <v>2.152255571899881</v>
       </c>
       <c r="H4" t="n">
-        <v>1.043777917370361</v>
+        <v>1.281411030732393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0589368898849309</v>
+        <v>0.8307693640736318</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2484291688081427</v>
+        <v>2.385203975464</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1634035537375688</v>
+        <v>0.6557870893503035</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003724204729984</v>
+        <v>0.6486644519030185</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1703599813121645</v>
+        <v>0.6837053034103654</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2461293923712</v>
+        <v>35.68767640654365</v>
       </c>
       <c r="O4" t="n">
-        <v>216.4730580088043</v>
+        <v>56.40856542930306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_6</t>
+          <t>model_1_37_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9936327590033142</v>
+        <v>0.8989019970022258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7182474291385548</v>
+        <v>0.6743328557311425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.708343859174337</v>
+        <v>0.6465906060002253</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9878715018924307</v>
+        <v>-0.01689960671820967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02672194836675896</v>
+        <v>0.4242866914406311</v>
       </c>
       <c r="G5" t="n">
-        <v>1.884080738701781</v>
+        <v>2.177737693285164</v>
       </c>
       <c r="H5" t="n">
-        <v>1.043237104538695</v>
+        <v>1.264124910483142</v>
       </c>
       <c r="I5" t="n">
-        <v>0.057529321585062</v>
+        <v>0.874794650183758</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2505491858569909</v>
+        <v>2.416402178327942</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1634684934987747</v>
+        <v>0.6513729280839288</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003727165461475</v>
+        <v>0.653378275436203</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1704276856934487</v>
+        <v>0.6791032221603075</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2445400301089</v>
+        <v>35.71469178636926</v>
       </c>
       <c r="O5" t="n">
-        <v>216.471468646542</v>
+        <v>56.43558080912867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_5</t>
+          <t>model_1_37_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9936259423494248</v>
+        <v>0.9007040203281207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7181812994672074</v>
+        <v>0.6720656312551565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7084945350329295</v>
+        <v>0.6524317145902829</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9881671682801593</v>
+        <v>-0.1417477384614161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02675055640489678</v>
+        <v>0.4167239850352475</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88452294811858</v>
+        <v>2.192898633795691</v>
       </c>
       <c r="H6" t="n">
-        <v>1.042698145729198</v>
+        <v>1.243231603743441</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05612688193007155</v>
+        <v>0.9821960858936831</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2526960738410321</v>
+        <v>2.49128554456135</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1635559733085184</v>
+        <v>0.6455416214584832</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003731155697898</v>
+        <v>0.6595566411249852</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1705188896998013</v>
+        <v>0.6730236647393478</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2424000113468</v>
+        <v>35.75066236546076</v>
       </c>
       <c r="O6" t="n">
-        <v>216.4693286277798</v>
+        <v>56.47155138822016</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9936173422971808</v>
+        <v>0.8991866713017204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7181137176272585</v>
+        <v>0.6656162426529606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7086447253905581</v>
+        <v>0.6476125536155922</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9884615177075726</v>
+        <v>-0.0266356049956471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02678664898441996</v>
+        <v>0.4230919743039003</v>
       </c>
       <c r="G7" t="n">
-        <v>1.884974868193504</v>
+        <v>2.23602572507528</v>
       </c>
       <c r="H7" t="n">
-        <v>1.042160923528498</v>
+        <v>1.260469463118902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05473068903645382</v>
+        <v>0.8831701074570548</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2548625561794137</v>
+        <v>2.421803844163003</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1636662732037971</v>
+        <v>0.6504552054553029</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003736189874821</v>
+        <v>0.6543543016058984</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1706338852899744</v>
+        <v>0.6781464301794333</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2397033756349</v>
+        <v>35.72033138045702</v>
       </c>
       <c r="O7" t="n">
-        <v>216.466631992068</v>
+        <v>56.44122040321643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_3</t>
+          <t>model_1_37_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9936069189855685</v>
+        <v>0.8941612760346487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7180446971249823</v>
+        <v>0.6471970579011534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7087939210112979</v>
+        <v>0.6297159902494058</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9887545528065546</v>
+        <v>0.1526560482059752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0268303933934757</v>
+        <v>0.4441824831945083</v>
       </c>
       <c r="G8" t="n">
-        <v>1.885436408610035</v>
+        <v>2.359194898323161</v>
       </c>
       <c r="H8" t="n">
-        <v>1.041627259443971</v>
+        <v>1.324484432577383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05334073042034802</v>
+        <v>0.7289332703030373</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2570536293451655</v>
+        <v>2.300297433982445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1637998577333805</v>
+        <v>0.6664701667700575</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003742291325521</v>
+        <v>0.6371243749759383</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1707731567895402</v>
+        <v>0.6948431815528971</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2364399044085</v>
+        <v>35.62303960560141</v>
       </c>
       <c r="O8" t="n">
-        <v>216.4633685208416</v>
+        <v>56.34392862836081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_2</t>
+          <t>model_1_37_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9935946020467147</v>
+        <v>0.901410475281134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7179741619431961</v>
+        <v>0.6454716251958343</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7089428532115347</v>
+        <v>0.6548103924744637</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9890461373305224</v>
+        <v>-0.1877969221973101</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02688208495097439</v>
+        <v>0.4137591447240843</v>
       </c>
       <c r="G9" t="n">
-        <v>1.885908077695424</v>
+        <v>2.370732874768517</v>
       </c>
       <c r="H9" t="n">
-        <v>1.041094537599309</v>
+        <v>1.234723210875395</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05195765234260111</v>
+        <v>1.021810202480368</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2592649338204851</v>
+        <v>2.514511345060125</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1639575705814598</v>
+        <v>0.6432411248700477</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003749501240947</v>
+        <v>0.6619787723924596</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1709375838000729</v>
+        <v>0.6706252312484583</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2325904023896</v>
+        <v>35.76494250096589</v>
       </c>
       <c r="O9" t="n">
-        <v>216.4595190188226</v>
+        <v>56.4858315237253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_1</t>
+          <t>model_1_37_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.993580371805539</v>
+        <v>0.9014304581726036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.717902037222665</v>
+        <v>0.6452556951938315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7090909290201866</v>
+        <v>0.654932735767167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9893361846832542</v>
+        <v>-0.1982435997956562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02694180622901935</v>
+        <v>0.4136752808033776</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88639037603372</v>
+        <v>2.372176799686176</v>
       </c>
       <c r="H10" t="n">
-        <v>1.040564879017689</v>
+        <v>1.234285596011267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05058186555661883</v>
+        <v>1.030797026366278</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2615007753573595</v>
+        <v>2.520588847532798</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1641395937274713</v>
+        <v>0.6431759330100728</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003757831138221</v>
+        <v>0.6620472851632123</v>
       </c>
       <c r="M10" t="n">
-        <v>0.17112735604825</v>
+        <v>0.6705572640360384</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2281521277689</v>
+        <v>35.76534791760511</v>
       </c>
       <c r="O10" t="n">
-        <v>216.4550807442019</v>
+        <v>56.48623694036452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_0</t>
+          <t>model_1_37_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9935641215046342</v>
+        <v>0.9014270673102516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.717828320369486</v>
+        <v>0.6435474792584366</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7092382240812815</v>
+        <v>0.6553087353111384</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9896246060971945</v>
+        <v>-0.2499527828349686</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02701000526561114</v>
+        <v>0.4136895115272871</v>
       </c>
       <c r="G11" t="n">
-        <v>1.886883320970362</v>
+        <v>2.383599647511773</v>
       </c>
       <c r="H11" t="n">
-        <v>1.040038013124811</v>
+        <v>1.232940667444187</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04921379111513192</v>
+        <v>1.075280194998969</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2637570816300434</v>
+        <v>2.550250109590513</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1643472094853184</v>
+        <v>0.6431869957697272</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003767343509482</v>
+        <v>0.662035659349434</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1713438104387325</v>
+        <v>0.6705687977602744</v>
       </c>
       <c r="N11" t="n">
-        <v>137.2230958324544</v>
+        <v>35.76527911736588</v>
       </c>
       <c r="O11" t="n">
-        <v>216.4500244488874</v>
+        <v>56.48616814012529</v>
       </c>
     </row>
   </sheetData>
